--- a/Code/Results/Cases/Case_7_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24908026884128</v>
+        <v>21.49965929447017</v>
       </c>
       <c r="C2">
-        <v>12.96629283058857</v>
+        <v>13.57604975894404</v>
       </c>
       <c r="D2">
-        <v>5.245350786324787</v>
+        <v>4.60506438754043</v>
       </c>
       <c r="E2">
-        <v>7.230177595350004</v>
+        <v>7.583218135185748</v>
       </c>
       <c r="F2">
-        <v>37.63099555598767</v>
+        <v>19.54402506745655</v>
       </c>
       <c r="G2">
-        <v>2.098233679263535</v>
+        <v>2.083514648333634</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.176611535621601</v>
+        <v>6.157698987372641</v>
       </c>
       <c r="M2">
-        <v>12.545756752879</v>
+        <v>12.40033116979529</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.98357152373375</v>
+        <v>15.62726385974822</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7420544235883</v>
+        <v>20.05177155487953</v>
       </c>
       <c r="C3">
-        <v>12.24217041212344</v>
+        <v>13.07176285626978</v>
       </c>
       <c r="D3">
-        <v>5.313588432021874</v>
+        <v>4.506602973181676</v>
       </c>
       <c r="E3">
-        <v>7.256251196946438</v>
+        <v>7.726126263583195</v>
       </c>
       <c r="F3">
-        <v>36.07860910495157</v>
+        <v>19.14498772622047</v>
       </c>
       <c r="G3">
-        <v>2.108946421564697</v>
+        <v>2.089511460105757</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.104575259696376</v>
+        <v>6.076721236789307</v>
       </c>
       <c r="M3">
-        <v>12.01061004618837</v>
+        <v>11.78688737691847</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.94088395455608</v>
+        <v>15.56740828795638</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83319851250449</v>
+        <v>19.11044934322092</v>
       </c>
       <c r="C4">
-        <v>11.77826681095386</v>
+        <v>12.75278085457296</v>
       </c>
       <c r="D4">
-        <v>5.356832007735288</v>
+        <v>4.445121696070368</v>
       </c>
       <c r="E4">
-        <v>7.273094975648993</v>
+        <v>7.816543729005683</v>
       </c>
       <c r="F4">
-        <v>35.12973557540652</v>
+        <v>18.9211155218403</v>
       </c>
       <c r="G4">
-        <v>2.115673049505377</v>
+        <v>2.093303638821807</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.063470808112262</v>
+        <v>6.029381725701927</v>
       </c>
       <c r="M4">
-        <v>11.67957524662327</v>
+        <v>11.39752200703372</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.31117889838843</v>
+        <v>15.55057641422984</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46482032144321</v>
+        <v>18.71361181470772</v>
       </c>
       <c r="C5">
-        <v>11.58437614541839</v>
+        <v>12.62057235089175</v>
       </c>
       <c r="D5">
-        <v>5.374785659862813</v>
+        <v>4.419829809758706</v>
       </c>
       <c r="E5">
-        <v>7.280164164292484</v>
+        <v>7.854075004275908</v>
       </c>
       <c r="F5">
-        <v>34.74447106347365</v>
+        <v>18.83517163687</v>
       </c>
       <c r="G5">
-        <v>2.118454217376542</v>
+        <v>2.094877441794666</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.047493028524868</v>
+        <v>6.010694925658743</v>
       </c>
       <c r="M5">
-        <v>11.54422051421228</v>
+        <v>11.2358320802202</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.05735898855484</v>
+        <v>15.54851562013188</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.40313810879344</v>
+        <v>18.64691502579828</v>
       </c>
       <c r="C6">
-        <v>11.55188862156297</v>
+        <v>12.59848922565765</v>
       </c>
       <c r="D6">
-        <v>5.37778670646495</v>
+        <v>4.415616362907639</v>
       </c>
       <c r="E6">
-        <v>7.281350268643215</v>
+        <v>7.860348833004293</v>
       </c>
       <c r="F6">
-        <v>34.68059394601038</v>
+        <v>18.82121863775123</v>
       </c>
       <c r="G6">
-        <v>2.118918515871186</v>
+        <v>2.095140511293207</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.044886196033262</v>
+        <v>6.007628647786188</v>
       </c>
       <c r="M6">
-        <v>11.52172266739093</v>
+        <v>11.20880691087643</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.01538558753332</v>
+        <v>15.548456923585</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82826496143285</v>
+        <v>19.10515117953907</v>
       </c>
       <c r="C7">
-        <v>11.77567153342257</v>
+        <v>12.75100665231501</v>
       </c>
       <c r="D7">
-        <v>5.357072802339748</v>
+        <v>4.444781536065558</v>
       </c>
       <c r="E7">
-        <v>7.273189487951402</v>
+        <v>7.817047095874534</v>
       </c>
       <c r="F7">
-        <v>35.12453358353154</v>
+        <v>18.91993510691531</v>
       </c>
       <c r="G7">
-        <v>2.115710392060826</v>
+        <v>2.09332474745462</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.063252215831785</v>
+        <v>6.02912725492388</v>
       </c>
       <c r="M7">
-        <v>11.67775141731734</v>
+        <v>11.39535337478971</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.30774428786436</v>
+        <v>15.55052947750363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73901895087317</v>
+        <v>21.01123244443219</v>
       </c>
       <c r="C8">
-        <v>12.72061446208103</v>
+        <v>13.40418447436587</v>
       </c>
       <c r="D8">
-        <v>5.268595306795093</v>
+        <v>4.571339419090523</v>
       </c>
       <c r="E8">
-        <v>7.238991589082485</v>
+        <v>7.631946857647345</v>
       </c>
       <c r="F8">
-        <v>37.09501923789924</v>
+        <v>19.4020390397106</v>
       </c>
       <c r="G8">
-        <v>2.101898117999867</v>
+        <v>2.08555997173804</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.151116502855258</v>
+        <v>6.129287340083745</v>
       </c>
       <c r="M8">
-        <v>12.3618359054265</v>
+        <v>12.19154896052192</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.62195252319417</v>
+        <v>15.60236731699623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.24840221250312</v>
+        <v>24.33798375606246</v>
       </c>
       <c r="C9">
-        <v>14.42161349156957</v>
+        <v>14.60604325787349</v>
       </c>
       <c r="D9">
-        <v>5.106168534311117</v>
+        <v>4.810568794964444</v>
       </c>
       <c r="E9">
-        <v>7.178796893869323</v>
+        <v>7.289510859219317</v>
       </c>
       <c r="F9">
-        <v>40.98228143222678</v>
+        <v>20.51542559498155</v>
       </c>
       <c r="G9">
-        <v>2.075867296138774</v>
+        <v>2.071169955179964</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.348846042003983</v>
+        <v>6.344311674071281</v>
       </c>
       <c r="M9">
-        <v>13.67819235703681</v>
+        <v>13.74001302182881</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.2776259041629</v>
+        <v>15.87097881132801</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61691728309378</v>
+        <v>26.53728613236465</v>
       </c>
       <c r="C10">
-        <v>15.58173007524771</v>
+        <v>15.43552244284445</v>
       </c>
       <c r="D10">
-        <v>4.994340410049955</v>
+        <v>4.979895324094706</v>
       </c>
       <c r="E10">
-        <v>7.139172149388941</v>
+        <v>7.049495974778436</v>
       </c>
       <c r="F10">
-        <v>43.84358430295558</v>
+        <v>21.4350900409591</v>
       </c>
       <c r="G10">
-        <v>2.057188506902025</v>
+        <v>2.061052674693666</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.510559283845166</v>
+        <v>6.513238274821223</v>
       </c>
       <c r="M10">
-        <v>14.97963995039066</v>
+        <v>14.92447690986418</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.27328308679295</v>
+        <v>16.1814159056692</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.6517466633294</v>
+        <v>27.48593167014059</v>
       </c>
       <c r="C11">
-        <v>16.09116123897091</v>
+        <v>15.80041993401798</v>
       </c>
       <c r="D11">
-        <v>4.945338851939004</v>
+        <v>5.055353866154072</v>
       </c>
       <c r="E11">
-        <v>7.122263045906292</v>
+        <v>6.942599386835995</v>
       </c>
       <c r="F11">
-        <v>45.14641667469983</v>
+        <v>21.87516846922729</v>
       </c>
       <c r="G11">
-        <v>2.048737515926571</v>
+        <v>2.056535756722165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.587936182469766</v>
+        <v>6.592379743105953</v>
       </c>
       <c r="M11">
-        <v>15.54941238190992</v>
+        <v>15.43676176005431</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.19122088145038</v>
+        <v>16.34934583629125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.03775925084014</v>
+        <v>27.83781556952202</v>
       </c>
       <c r="C12">
-        <v>16.2815590567036</v>
+        <v>15.9367569087564</v>
       </c>
       <c r="D12">
-        <v>4.927079660940547</v>
+        <v>5.083689927627874</v>
       </c>
       <c r="E12">
-        <v>7.116033030458804</v>
+        <v>6.902430402571573</v>
       </c>
       <c r="F12">
-        <v>45.64007028757778</v>
+        <v>22.0448998973368</v>
       </c>
       <c r="G12">
-        <v>2.045539157515646</v>
+        <v>2.054836442362943</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.61780839438101</v>
+        <v>6.622671844608047</v>
       </c>
       <c r="M12">
-        <v>15.76189778488892</v>
+        <v>15.62698210791728</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.54038966566747</v>
+        <v>16.41693432769046</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.95488017606526</v>
+        <v>27.76235613803341</v>
       </c>
       <c r="C13">
-        <v>16.24066303961887</v>
+        <v>15.90747693428475</v>
       </c>
       <c r="D13">
-        <v>4.930998393992196</v>
+        <v>5.077598041070084</v>
       </c>
       <c r="E13">
-        <v>7.117366850635334</v>
+        <v>6.911068010125295</v>
       </c>
       <c r="F13">
-        <v>45.53373664840413</v>
+        <v>22.00820866518118</v>
       </c>
       <c r="G13">
-        <v>2.046227981802546</v>
+        <v>2.055201943680143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.611349061151661</v>
+        <v>6.616133640489352</v>
       </c>
       <c r="M13">
-        <v>15.71627816337244</v>
+        <v>15.5861816902848</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.4651176668847</v>
+        <v>16.40219782068821</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6836197922547</v>
+        <v>27.51502800823284</v>
       </c>
       <c r="C14">
-        <v>16.10687495886928</v>
+        <v>15.81167363286087</v>
       </c>
       <c r="D14">
-        <v>4.943830528317604</v>
+        <v>5.057689937321289</v>
       </c>
       <c r="E14">
-        <v>7.121746948939355</v>
+        <v>6.939288548096003</v>
       </c>
       <c r="F14">
-        <v>45.18702274147753</v>
+        <v>21.88907079907775</v>
       </c>
       <c r="G14">
-        <v>2.048474377598137</v>
+        <v>2.056395736642851</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.590382191920101</v>
+        <v>6.594865458303928</v>
       </c>
       <c r="M14">
-        <v>15.56695833827725</v>
+        <v>15.45248659971074</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.2199149095242</v>
+        <v>16.35482542778033</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51671124940497</v>
+        <v>27.36257871390348</v>
       </c>
       <c r="C15">
-        <v>16.02460268020491</v>
+        <v>15.75275011706732</v>
       </c>
       <c r="D15">
-        <v>4.951730154339931</v>
+        <v>5.045464243901934</v>
       </c>
       <c r="E15">
-        <v>7.124452842384294</v>
+        <v>6.956614305028657</v>
       </c>
       <c r="F15">
-        <v>44.97469505400205</v>
+        <v>21.81649581942961</v>
       </c>
       <c r="G15">
-        <v>2.049850448236813</v>
+        <v>2.057128385084596</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.577614526564236</v>
+        <v>6.581879940795497</v>
       </c>
       <c r="M15">
-        <v>15.47507418921601</v>
+        <v>15.3701048457737</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.0699296890169</v>
+        <v>16.32633341250098</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.54845372504188</v>
+        <v>26.4742558992736</v>
       </c>
       <c r="C16">
-        <v>15.54807879728405</v>
+        <v>15.41142042371402</v>
       </c>
       <c r="D16">
-        <v>4.997582621350432</v>
+        <v>4.974931223206775</v>
       </c>
       <c r="E16">
-        <v>7.140300682973567</v>
+        <v>7.056526387319723</v>
       </c>
       <c r="F16">
-        <v>43.75847369752173</v>
+        <v>21.40676345671094</v>
       </c>
       <c r="G16">
-        <v>2.0577413316479</v>
+        <v>2.061349489872609</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.505581118779265</v>
+        <v>6.508111758600174</v>
       </c>
       <c r="M16">
-        <v>14.94193655862576</v>
+        <v>14.89046766089495</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.21350493147156</v>
+        <v>16.17099242688611</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.9437268652006</v>
+        <v>25.91609773588369</v>
       </c>
       <c r="C17">
-        <v>15.25113459967894</v>
+        <v>15.19879836413912</v>
       </c>
       <c r="D17">
-        <v>5.02620818676144</v>
+        <v>4.931249979256138</v>
       </c>
       <c r="E17">
-        <v>7.150316954761012</v>
+        <v>7.11839220998384</v>
       </c>
       <c r="F17">
-        <v>43.01272601275912</v>
+        <v>21.16093969000553</v>
       </c>
       <c r="G17">
-        <v>2.062590723254502</v>
+        <v>2.063960105252743</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.462382636008178</v>
+        <v>6.463440031245092</v>
       </c>
       <c r="M17">
-        <v>14.60886373421615</v>
+        <v>14.58945993120401</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.69076068588165</v>
+        <v>16.08265234631177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59187394785836</v>
+        <v>25.59017506856562</v>
       </c>
       <c r="C18">
-        <v>15.07860786469444</v>
+        <v>15.07533553867985</v>
       </c>
       <c r="D18">
-        <v>5.042846807492876</v>
+        <v>4.905978667227492</v>
       </c>
       <c r="E18">
-        <v>7.156182248137751</v>
+        <v>7.154192257048958</v>
       </c>
       <c r="F18">
-        <v>42.58389165131643</v>
+        <v>21.02159505396094</v>
       </c>
       <c r="G18">
-        <v>2.06538462211391</v>
+        <v>2.065469781927927</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.437893302446779</v>
+        <v>6.43796253048155</v>
       </c>
       <c r="M18">
-        <v>14.41502986224083</v>
+        <v>14.41382773822276</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.39103192176115</v>
+        <v>16.0343471338095</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.47204266598689</v>
+        <v>25.47898113821027</v>
       </c>
       <c r="C19">
-        <v>15.01989249220748</v>
+        <v>15.03333433394266</v>
       </c>
       <c r="D19">
-        <v>5.048509495871718</v>
+        <v>4.897397404241725</v>
       </c>
       <c r="E19">
-        <v>7.158185687530139</v>
+        <v>7.16635126340716</v>
       </c>
       <c r="F19">
-        <v>42.4387108545003</v>
+        <v>20.9747681205296</v>
       </c>
       <c r="G19">
-        <v>2.066331524000555</v>
+        <v>2.065982360679331</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.429662362707449</v>
+        <v>6.429373702406936</v>
       </c>
       <c r="M19">
-        <v>14.34900842386678</v>
+        <v>14.35393095821885</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.28970811709293</v>
+        <v>16.01841719086046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.00851629319171</v>
+        <v>25.97601944032919</v>
       </c>
       <c r="C20">
-        <v>15.28292330883714</v>
+        <v>15.22155368024997</v>
       </c>
       <c r="D20">
-        <v>5.023142763107611</v>
+        <v>4.93591523625794</v>
       </c>
       <c r="E20">
-        <v>7.149239837991193</v>
+        <v>7.111784215460531</v>
       </c>
       <c r="F20">
-        <v>43.09210122382603</v>
+        <v>21.18689652110768</v>
       </c>
       <c r="G20">
-        <v>2.062074047939608</v>
+        <v>2.063681368468215</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.466944056090767</v>
+        <v>6.468173061313605</v>
       </c>
       <c r="M20">
-        <v>14.64455261767238</v>
+        <v>14.62176120437829</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.74630984914597</v>
+        <v>16.091795798265</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76345207716896</v>
+        <v>27.58787282577076</v>
       </c>
       <c r="C21">
-        <v>16.14623886768303</v>
+        <v>15.83986373435802</v>
       </c>
       <c r="D21">
-        <v>4.94005311275888</v>
+        <v>5.063543995249929</v>
       </c>
       <c r="E21">
-        <v>7.120455597744904</v>
+        <v>6.930991219060284</v>
       </c>
       <c r="F21">
-        <v>45.28885134532229</v>
+        <v>21.92398110035758</v>
       </c>
       <c r="G21">
-        <v>2.047814547708441</v>
+        <v>2.05604479783769</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.596524961947671</v>
+        <v>6.60110372729354</v>
       </c>
       <c r="M21">
-        <v>15.6109047071523</v>
+        <v>15.49185804392608</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.29189313097179</v>
+        <v>16.36863019007918</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.87643184215202</v>
+        <v>28.59853697323382</v>
       </c>
       <c r="C22">
-        <v>16.69589427654362</v>
+        <v>16.23321359306129</v>
       </c>
       <c r="D22">
-        <v>4.887496453854757</v>
+        <v>5.145562160594182</v>
       </c>
       <c r="E22">
-        <v>7.10266007730697</v>
+        <v>6.814632712926445</v>
       </c>
       <c r="F22">
-        <v>46.726438924634</v>
+        <v>22.42366514367916</v>
       </c>
       <c r="G22">
-        <v>2.03850322771869</v>
+        <v>2.051118218682642</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.684557195961556</v>
+        <v>6.689861348492538</v>
       </c>
       <c r="M22">
-        <v>16.22347015202785</v>
+        <v>16.03856204635435</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.31125633527764</v>
+        <v>16.57291874904782</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.28542180531906</v>
+        <v>28.06300448959131</v>
       </c>
       <c r="C23">
-        <v>16.40381948883851</v>
+        <v>16.02427360170736</v>
       </c>
       <c r="D23">
-        <v>4.915375986563081</v>
+        <v>5.101918924016583</v>
       </c>
       <c r="E23">
-        <v>7.112060036783154</v>
+        <v>6.876577083389574</v>
       </c>
       <c r="F23">
-        <v>45.95892800564503</v>
+        <v>22.15534339818449</v>
       </c>
       <c r="G23">
-        <v>2.043473860981476</v>
+        <v>2.053742140157356</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.637258059434821</v>
+        <v>6.642319868312851</v>
       </c>
       <c r="M23">
-        <v>15.89821325572593</v>
+        <v>15.74876850205812</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.76630023642916</v>
+        <v>16.46170033517159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.97923805580721</v>
+        <v>25.94894451331079</v>
       </c>
       <c r="C24">
-        <v>15.26855727856705</v>
+        <v>15.21126980879552</v>
       </c>
       <c r="D24">
-        <v>5.02452807812932</v>
+        <v>4.933806565901032</v>
       </c>
       <c r="E24">
-        <v>7.149726470719352</v>
+        <v>7.114770964019961</v>
       </c>
       <c r="F24">
-        <v>43.05621599194103</v>
+        <v>21.17515525892254</v>
       </c>
       <c r="G24">
-        <v>2.062307618060386</v>
+        <v>2.063807357875648</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.464880761882891</v>
+        <v>6.466032619733446</v>
       </c>
       <c r="M24">
-        <v>14.62842499219038</v>
+        <v>14.60716583460568</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.72119357607122</v>
+        <v>16.08765432263524</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.33675025754158</v>
+        <v>23.48143549836461</v>
       </c>
       <c r="C25">
-        <v>13.97748823887906</v>
+        <v>14.28997938015327</v>
       </c>
       <c r="D25">
-        <v>5.148857832655699</v>
+        <v>4.746916045124864</v>
       </c>
       <c r="E25">
-        <v>7.194307824111763</v>
+        <v>7.380044991581197</v>
       </c>
       <c r="F25">
-        <v>39.92941494992064</v>
+        <v>20.19626487755095</v>
       </c>
       <c r="G25">
-        <v>2.082815447385546</v>
+        <v>2.074978727128712</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.292540346876057</v>
+        <v>6.284189360212595</v>
       </c>
       <c r="M25">
-        <v>13.3254481136018</v>
+        <v>13.28002936104458</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.55130761819346</v>
+        <v>15.77922304167477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.49965929447017</v>
+        <v>21.64015681628219</v>
       </c>
       <c r="C2">
-        <v>13.57604975894404</v>
+        <v>14.42675429313565</v>
       </c>
       <c r="D2">
-        <v>4.60506438754043</v>
+        <v>5.017749335692784</v>
       </c>
       <c r="E2">
-        <v>7.583218135185748</v>
+        <v>8.978903829984576</v>
       </c>
       <c r="F2">
-        <v>19.54402506745655</v>
+        <v>15.39174014280515</v>
       </c>
       <c r="G2">
-        <v>2.083514648333634</v>
+        <v>17.99767296970207</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.644918259713854</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.76363387175448</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.98624452166498</v>
       </c>
       <c r="L2">
-        <v>6.157698987372641</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.40033116979529</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.018911107115978</v>
       </c>
       <c r="O2">
-        <v>15.62726385974822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.616999296717</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.18290744435942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.05177155487953</v>
+        <v>20.2461478163711</v>
       </c>
       <c r="C3">
-        <v>13.07176285626978</v>
+        <v>13.85474769198367</v>
       </c>
       <c r="D3">
-        <v>4.506602973181676</v>
+        <v>4.79686071776333</v>
       </c>
       <c r="E3">
-        <v>7.726126263583195</v>
+        <v>8.953731395005391</v>
       </c>
       <c r="F3">
-        <v>19.14498772622047</v>
+        <v>15.10802828238649</v>
       </c>
       <c r="G3">
-        <v>2.089511460105757</v>
+        <v>17.66906241802134</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.842946463609926</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.823126083694633</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.26425622719651</v>
       </c>
       <c r="L3">
-        <v>6.076721236789307</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.78688737691847</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.853233037207825</v>
       </c>
       <c r="O3">
-        <v>15.56740828795638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.94774212611377</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.19461902725346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.11044934322092</v>
+        <v>19.33882365147485</v>
       </c>
       <c r="C4">
-        <v>12.75278085457296</v>
+        <v>13.49060849480831</v>
       </c>
       <c r="D4">
-        <v>4.445121696070368</v>
+        <v>4.655289150343645</v>
       </c>
       <c r="E4">
-        <v>7.816543729005683</v>
+        <v>8.937860090199928</v>
       </c>
       <c r="F4">
-        <v>18.9211155218403</v>
+        <v>14.94674866517703</v>
       </c>
       <c r="G4">
-        <v>2.093303638821807</v>
+        <v>17.48907792340716</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.968582265206078</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.86468149427904</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.44278114446291</v>
       </c>
       <c r="L4">
-        <v>6.029381725701927</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.39752200703372</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.749267729248369</v>
       </c>
       <c r="O4">
-        <v>15.55057641422984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.51734499423521</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.21349174957196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.71361181470772</v>
+        <v>18.95614555669572</v>
       </c>
       <c r="C5">
-        <v>12.62057235089175</v>
+        <v>13.33911951167129</v>
       </c>
       <c r="D5">
-        <v>4.419829809758706</v>
+        <v>4.596146060666503</v>
       </c>
       <c r="E5">
-        <v>7.854075004275908</v>
+        <v>8.931281848389334</v>
       </c>
       <c r="F5">
-        <v>18.83517163687</v>
+        <v>14.88429072994456</v>
       </c>
       <c r="G5">
-        <v>2.094877441794666</v>
+        <v>17.42116155074471</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.020812538529003</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.88283640738673</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.51745509459543</v>
       </c>
       <c r="L5">
-        <v>6.010694925658743</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.2358320802202</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.706370205256357</v>
       </c>
       <c r="O5">
-        <v>15.54851562013188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.33718586989831</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.22400648227759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.64691502579828</v>
+        <v>18.89182071687276</v>
       </c>
       <c r="C6">
-        <v>12.59848922565765</v>
+        <v>13.31378250083711</v>
       </c>
       <c r="D6">
-        <v>4.415616362907639</v>
+        <v>4.586239137359778</v>
       </c>
       <c r="E6">
-        <v>7.860348833004293</v>
+        <v>8.930182685622633</v>
       </c>
       <c r="F6">
-        <v>18.82121863775123</v>
+        <v>14.87411700344141</v>
       </c>
       <c r="G6">
-        <v>2.095140511293207</v>
+        <v>17.41020995570553</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.029548145192537</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.885923512222511</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.52996965267174</v>
       </c>
       <c r="L6">
-        <v>6.007628647786188</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.20880691087643</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.699216019991177</v>
       </c>
       <c r="O6">
-        <v>15.548456923585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.30698681084201</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.22591965236222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.10515117953907</v>
+        <v>19.33371510665203</v>
       </c>
       <c r="C7">
-        <v>12.75100665231501</v>
+        <v>13.48857779612471</v>
       </c>
       <c r="D7">
-        <v>4.444781536065558</v>
+        <v>4.65449734052287</v>
       </c>
       <c r="E7">
-        <v>7.817047095874534</v>
+        <v>8.937771829250222</v>
       </c>
       <c r="F7">
-        <v>18.91993510691531</v>
+        <v>14.94589310613698</v>
       </c>
       <c r="G7">
-        <v>2.09332474745462</v>
+        <v>17.4881400852242</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.969282459755743</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.864921451038978</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.44378048869315</v>
       </c>
       <c r="L7">
-        <v>6.02912725492388</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.39535337478971</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.748691303688183</v>
       </c>
       <c r="O7">
-        <v>15.55052947750363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.51493442620399</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.21362227215815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01123244443219</v>
+        <v>21.17015931489409</v>
       </c>
       <c r="C8">
-        <v>13.40418447436587</v>
+        <v>14.23229314345688</v>
       </c>
       <c r="D8">
-        <v>4.571339419090523</v>
+        <v>4.942844706973343</v>
       </c>
       <c r="E8">
-        <v>7.631946857647345</v>
+        <v>8.970306798599847</v>
       </c>
       <c r="F8">
-        <v>19.4020390397106</v>
+        <v>15.29124838722031</v>
       </c>
       <c r="G8">
-        <v>2.08555997173804</v>
+        <v>17.87982658193001</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.712368122842601</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.78307686890787</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.08045064625495</v>
       </c>
       <c r="L8">
-        <v>6.129287340083745</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.19154896052192</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.962268419594873</v>
       </c>
       <c r="O8">
-        <v>15.60236731699623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.39034884815207</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.18445339794093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33798375606246</v>
+        <v>24.36469779391106</v>
       </c>
       <c r="C9">
-        <v>14.60604325787349</v>
+        <v>15.58254870269394</v>
       </c>
       <c r="D9">
-        <v>4.810568794964444</v>
+        <v>5.459560110044782</v>
       </c>
       <c r="E9">
-        <v>7.289510859219317</v>
+        <v>9.031104180223993</v>
       </c>
       <c r="F9">
-        <v>20.51542559498155</v>
+        <v>16.06966671833719</v>
       </c>
       <c r="G9">
-        <v>2.071169955179964</v>
+        <v>18.82148691280876</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.873455040900159</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.664491203203146</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.43235816221024</v>
       </c>
       <c r="L9">
-        <v>6.344311674071281</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.74001302182881</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.36204068996046</v>
       </c>
       <c r="O9">
-        <v>15.87097881132801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.94820289566089</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.22488390889619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53728613236465</v>
+        <v>26.4822510349026</v>
       </c>
       <c r="C10">
-        <v>15.43552244284445</v>
+        <v>16.60180215750986</v>
       </c>
       <c r="D10">
-        <v>4.979895324094706</v>
+        <v>5.830455707435783</v>
       </c>
       <c r="E10">
-        <v>7.049495974778436</v>
+        <v>9.064479406481968</v>
       </c>
       <c r="F10">
-        <v>21.4350900409591</v>
+        <v>16.59198939546576</v>
       </c>
       <c r="G10">
-        <v>2.061052674693666</v>
+        <v>19.42248806088161</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.187020108602215</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.573086305188184</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.93723670136999</v>
       </c>
       <c r="L10">
-        <v>6.513238274821223</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.92447690986418</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.548425488926888</v>
       </c>
       <c r="O10">
-        <v>16.1814159056692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.91949021833831</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.23692739296298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.48593167014059</v>
+        <v>27.53497649173057</v>
       </c>
       <c r="C11">
-        <v>15.80041993401798</v>
+        <v>17.92318048382402</v>
       </c>
       <c r="D11">
-        <v>5.055353866154072</v>
+        <v>6.189288172555972</v>
       </c>
       <c r="E11">
-        <v>6.942599386835995</v>
+        <v>9.229780719821639</v>
       </c>
       <c r="F11">
-        <v>21.87516846922729</v>
+        <v>15.89949925165365</v>
       </c>
       <c r="G11">
-        <v>2.056535756722165</v>
+        <v>18.02500522007237</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.028381096100897</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.253892491179685</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.21856632395816</v>
       </c>
       <c r="L11">
-        <v>6.592379743105953</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.43676176005431</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.870145891884256</v>
       </c>
       <c r="O11">
-        <v>16.34934583629125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.71880460563418</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.53091509080202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.83781556952202</v>
+        <v>27.99715316585162</v>
       </c>
       <c r="C12">
-        <v>15.9367569087564</v>
+        <v>18.85950346538636</v>
       </c>
       <c r="D12">
-        <v>5.083689927627874</v>
+        <v>6.421106487833129</v>
       </c>
       <c r="E12">
-        <v>6.902430402571573</v>
+        <v>9.665310898117649</v>
       </c>
       <c r="F12">
-        <v>22.0448998973368</v>
+        <v>15.18343146440262</v>
       </c>
       <c r="G12">
-        <v>2.054836442362943</v>
+        <v>16.68306943609653</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.257894942673386</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.000436053304802</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.770729751976672</v>
       </c>
       <c r="L12">
-        <v>6.622671844608047</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.62698210791728</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.339335388541792</v>
       </c>
       <c r="O12">
-        <v>16.41693432769046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.34067933347193</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.92001132907007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.76235613803341</v>
+        <v>28.04814986953877</v>
       </c>
       <c r="C13">
-        <v>15.90747693428475</v>
+        <v>19.57203937026827</v>
       </c>
       <c r="D13">
-        <v>5.077598041070084</v>
+        <v>6.574157408151497</v>
       </c>
       <c r="E13">
-        <v>6.911068010125295</v>
+        <v>10.28845185623551</v>
       </c>
       <c r="F13">
-        <v>22.00820866518118</v>
+        <v>14.38785567264846</v>
       </c>
       <c r="G13">
-        <v>2.055201943680143</v>
+        <v>15.26832042399703</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.563660725440394</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.783080228668943</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.518019395730756</v>
       </c>
       <c r="L13">
-        <v>6.616133640489352</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.5861816902848</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.906861562123102</v>
       </c>
       <c r="O13">
-        <v>16.40219782068821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.79242926846287</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.34278096641686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.51502800823284</v>
+        <v>27.89886469583843</v>
       </c>
       <c r="C14">
-        <v>15.81167363286087</v>
+        <v>19.97814982529257</v>
       </c>
       <c r="D14">
-        <v>5.057689937321289</v>
+        <v>6.647517139876896</v>
       </c>
       <c r="E14">
-        <v>6.939288548096003</v>
+        <v>10.81899773859588</v>
       </c>
       <c r="F14">
-        <v>21.88907079907775</v>
+        <v>13.78970963092232</v>
       </c>
       <c r="G14">
-        <v>2.056395736642851</v>
+        <v>14.23637695115942</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.503789612458225</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.649606518289315</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.444853061255127</v>
       </c>
       <c r="L14">
-        <v>6.594865458303928</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.45248659971074</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.676148179619257</v>
       </c>
       <c r="O14">
-        <v>16.35482542778033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.32407201922099</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.958032352325683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.36257871390348</v>
+        <v>27.77353742612709</v>
       </c>
       <c r="C15">
-        <v>15.75275011706732</v>
+        <v>20.02687376693121</v>
       </c>
       <c r="D15">
-        <v>5.045464243901934</v>
+        <v>6.648205727297777</v>
       </c>
       <c r="E15">
-        <v>6.956614305028657</v>
+        <v>10.94821054905917</v>
       </c>
       <c r="F15">
-        <v>21.81649581942961</v>
+        <v>13.62903548195347</v>
       </c>
       <c r="G15">
-        <v>2.057128385084596</v>
+        <v>13.97314439472727</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.717739876359148</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.62572794904574</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.46114759569967</v>
       </c>
       <c r="L15">
-        <v>6.581879940795497</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.3701048457737</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.630078446344161</v>
       </c>
       <c r="O15">
-        <v>16.32633341250098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.17298464426248</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.874318137844124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.4742558992736</v>
+        <v>26.90674628395477</v>
       </c>
       <c r="C16">
-        <v>15.41142042371402</v>
+        <v>19.49769706992834</v>
       </c>
       <c r="D16">
-        <v>4.974931223206775</v>
+        <v>6.473261954982738</v>
       </c>
       <c r="E16">
-        <v>7.056526387319723</v>
+        <v>10.79037219555379</v>
       </c>
       <c r="F16">
-        <v>21.40676345671094</v>
+        <v>13.52549756424935</v>
       </c>
       <c r="G16">
-        <v>2.061349489872609</v>
+        <v>13.92773067533552</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.449454294203115</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.710226309880452</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.732413488329271</v>
       </c>
       <c r="L16">
-        <v>6.508111758600174</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.89046766089495</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.627489137980468</v>
       </c>
       <c r="O16">
-        <v>16.17099242688611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.84547286094741</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.981215784096092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.91609773588369</v>
+        <v>26.30938473462914</v>
       </c>
       <c r="C17">
-        <v>15.19879836413912</v>
+        <v>18.85784338129387</v>
       </c>
       <c r="D17">
-        <v>4.931249979256138</v>
+        <v>6.29553428368437</v>
       </c>
       <c r="E17">
-        <v>7.11839220998384</v>
+        <v>10.36759840425348</v>
       </c>
       <c r="F17">
-        <v>21.16093969000553</v>
+        <v>13.77638577468238</v>
       </c>
       <c r="G17">
-        <v>2.063960105252743</v>
+        <v>14.46208830257152</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.696055802794364</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.845195203049659</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.972304235193661</v>
       </c>
       <c r="L17">
-        <v>6.463440031245092</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.58945993120401</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.735132303389327</v>
       </c>
       <c r="O17">
-        <v>16.08265234631177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.85114130951826</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.26764333059284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59017506856562</v>
+        <v>25.88967931363322</v>
       </c>
       <c r="C18">
-        <v>15.07533553867985</v>
+        <v>18.06471767918869</v>
       </c>
       <c r="D18">
-        <v>4.905978667227492</v>
+        <v>6.098584829892159</v>
       </c>
       <c r="E18">
-        <v>7.154192257048958</v>
+        <v>9.772383309261828</v>
       </c>
       <c r="F18">
-        <v>21.02159505396094</v>
+        <v>14.35047216361773</v>
       </c>
       <c r="G18">
-        <v>2.065469781927927</v>
+        <v>15.53890844903744</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.47288394397181</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.038989961885525</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.24857876719501</v>
       </c>
       <c r="L18">
-        <v>6.43796253048155</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.41382773822276</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.020436746728529</v>
       </c>
       <c r="O18">
-        <v>16.0343471338095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.14607608859895</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.73864923951671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.47898113821027</v>
+        <v>25.65214063837705</v>
       </c>
       <c r="C19">
-        <v>15.03333433394266</v>
+        <v>17.23107858384003</v>
       </c>
       <c r="D19">
-        <v>4.897397404241725</v>
+        <v>5.905302636991188</v>
       </c>
       <c r="E19">
-        <v>7.16635126340716</v>
+        <v>9.265910489590796</v>
       </c>
       <c r="F19">
-        <v>20.9747681205296</v>
+        <v>15.13167167046876</v>
       </c>
       <c r="G19">
-        <v>2.065982360679331</v>
+        <v>16.95834635177241</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.101237285231678</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.26903789170677</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.58515098930491</v>
       </c>
       <c r="L19">
-        <v>6.429373702406936</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.35393095821885</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.51510356951376</v>
       </c>
       <c r="O19">
-        <v>16.01841719086046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.64398356826187</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.3279019517398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97601944032919</v>
+        <v>25.94359535849345</v>
       </c>
       <c r="C20">
-        <v>15.22155368024997</v>
+        <v>16.34421660195285</v>
       </c>
       <c r="D20">
-        <v>4.93591523625794</v>
+        <v>5.7363967897262</v>
       </c>
       <c r="E20">
-        <v>7.111784215460531</v>
+        <v>9.054762539990532</v>
       </c>
       <c r="F20">
-        <v>21.18689652110768</v>
+        <v>16.44571343550655</v>
       </c>
       <c r="G20">
-        <v>2.063681368468215</v>
+        <v>19.24803200307021</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.103995961638688</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.593665476175036</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.06173313191178</v>
       </c>
       <c r="L20">
-        <v>6.468173061313605</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.62176120437829</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.495840663984131</v>
       </c>
       <c r="O20">
-        <v>16.091795798265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.66757533551704</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.22535486652113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.58787282577076</v>
+        <v>27.46588503748365</v>
       </c>
       <c r="C21">
-        <v>15.83986373435802</v>
+        <v>16.9475443963501</v>
       </c>
       <c r="D21">
-        <v>5.063543995249929</v>
+        <v>5.975485352504919</v>
       </c>
       <c r="E21">
-        <v>6.930991219060284</v>
+        <v>9.095977584496513</v>
       </c>
       <c r="F21">
-        <v>21.92398110035758</v>
+        <v>17.03305882241103</v>
       </c>
       <c r="G21">
-        <v>2.05604479783769</v>
+        <v>20.04580027661194</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.352481641118113</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.584040305944018</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.79261942462223</v>
       </c>
       <c r="L21">
-        <v>6.60110372729354</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.49185804392608</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.780553872177419</v>
       </c>
       <c r="O21">
-        <v>16.36863019007918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.49231896337949</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.38677583381683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.59853697323382</v>
+        <v>28.42535115974848</v>
       </c>
       <c r="C22">
-        <v>16.23321359306129</v>
+        <v>17.37861445233751</v>
       </c>
       <c r="D22">
-        <v>5.145562160594182</v>
+        <v>6.137393996421394</v>
       </c>
       <c r="E22">
-        <v>6.814632712926445</v>
+        <v>9.117365603568389</v>
       </c>
       <c r="F22">
-        <v>22.42366514367916</v>
+        <v>17.37081177405304</v>
       </c>
       <c r="G22">
-        <v>2.051118218682642</v>
+        <v>20.4845855560613</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.507181051584297</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.567181213464565</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.59469284384272</v>
       </c>
       <c r="L22">
-        <v>6.689861348492538</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.03856204635435</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.915481937474728</v>
       </c>
       <c r="O22">
-        <v>16.57291874904782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.97498313972764</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.46326068842352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.06300448959131</v>
+        <v>27.91726827786918</v>
       </c>
       <c r="C23">
-        <v>16.02427360170736</v>
+        <v>17.14987672266824</v>
       </c>
       <c r="D23">
-        <v>5.101918924016583</v>
+        <v>6.051534633443379</v>
       </c>
       <c r="E23">
-        <v>6.876577083389574</v>
+        <v>9.105957398144257</v>
       </c>
       <c r="F23">
-        <v>22.15534339818449</v>
+        <v>17.18967347504244</v>
       </c>
       <c r="G23">
-        <v>2.053742140157356</v>
+        <v>20.24876254998694</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.424871667611892</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.575602573101565</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.69943027193568</v>
       </c>
       <c r="L23">
-        <v>6.642319868312851</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.74876850205812</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.843727105375121</v>
       </c>
       <c r="O23">
-        <v>16.46170033517159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.71913133455603</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.42115442524144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.94894451331079</v>
+        <v>25.90477687460207</v>
       </c>
       <c r="C24">
-        <v>15.21126980879552</v>
+        <v>16.25462376225215</v>
       </c>
       <c r="D24">
-        <v>4.933806565901032</v>
+        <v>5.714254631291825</v>
       </c>
       <c r="E24">
-        <v>7.114770964019961</v>
+        <v>9.062542207316328</v>
       </c>
       <c r="F24">
-        <v>21.17515525892254</v>
+        <v>16.52320263011698</v>
       </c>
       <c r="G24">
-        <v>2.063807357875648</v>
+        <v>19.39199246622846</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.107383143296465</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.619829248820071</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.1151766730152</v>
       </c>
       <c r="L24">
-        <v>6.466032619733446</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.60716583460568</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.566391528307199</v>
       </c>
       <c r="O24">
-        <v>16.08765432263524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.71172421271958</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.28937666652194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.48143549836461</v>
+        <v>23.54384034341333</v>
       </c>
       <c r="C25">
-        <v>14.28997938015327</v>
+        <v>15.22955746371349</v>
       </c>
       <c r="D25">
-        <v>4.746916045124864</v>
+        <v>5.325184946747733</v>
       </c>
       <c r="E25">
-        <v>7.380044991581197</v>
+        <v>9.014935609226276</v>
       </c>
       <c r="F25">
-        <v>20.19626487755095</v>
+        <v>15.84847734950922</v>
       </c>
       <c r="G25">
-        <v>2.074978727128712</v>
+        <v>18.54815497856256</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.751907291034973</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.691792314940085</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.60043531012298</v>
       </c>
       <c r="L25">
-        <v>6.284189360212595</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.28002936104458</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.25610138901137</v>
       </c>
       <c r="O25">
-        <v>15.77922304167477</v>
+        <v>13.54428516942719</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.20280866429348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.64015681628219</v>
+        <v>21.65542303485058</v>
       </c>
       <c r="C2">
-        <v>14.42675429313565</v>
+        <v>14.47280660983879</v>
       </c>
       <c r="D2">
-        <v>5.017749335692784</v>
+        <v>5.057214732065161</v>
       </c>
       <c r="E2">
-        <v>8.978903829984576</v>
+        <v>8.884961019446335</v>
       </c>
       <c r="F2">
-        <v>15.39174014280515</v>
+        <v>15.1982826494027</v>
       </c>
       <c r="G2">
-        <v>17.99767296970207</v>
+        <v>16.9125991149154</v>
       </c>
       <c r="H2">
-        <v>1.644918259713854</v>
+        <v>1.621727387540273</v>
       </c>
       <c r="J2">
-        <v>7.76363387175448</v>
+        <v>8.318991040932332</v>
       </c>
       <c r="K2">
-        <v>11.98624452166498</v>
+        <v>11.784556741188</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.59302114116364</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.814310007064093</v>
       </c>
       <c r="N2">
-        <v>7.018911107115978</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.616999296717</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.068722841008703</v>
       </c>
       <c r="Q2">
-        <v>12.18290744435942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.63135291250321</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.04099119980807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.2461478163711</v>
+        <v>20.2726394236414</v>
       </c>
       <c r="C3">
-        <v>13.85474769198367</v>
+        <v>13.80184496769198</v>
       </c>
       <c r="D3">
-        <v>4.79686071776333</v>
+        <v>4.819281003183568</v>
       </c>
       <c r="E3">
-        <v>8.953731395005391</v>
+        <v>8.865444707211619</v>
       </c>
       <c r="F3">
-        <v>15.10802828238649</v>
+        <v>14.94796040190762</v>
       </c>
       <c r="G3">
-        <v>17.66906241802134</v>
+        <v>16.63051522783815</v>
       </c>
       <c r="H3">
-        <v>1.842946463609926</v>
+        <v>1.804390536199811</v>
       </c>
       <c r="J3">
-        <v>7.823126083694633</v>
+        <v>8.350826175692045</v>
       </c>
       <c r="K3">
-        <v>12.26425622719651</v>
+        <v>12.05671345023291</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.81456425592255</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.036209413751838</v>
       </c>
       <c r="N3">
-        <v>6.853233037207825</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.94774212611377</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.911316676266022</v>
       </c>
       <c r="Q3">
-        <v>12.19461902725346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.95705183455609</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.06948077152464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.33882365147485</v>
+        <v>19.37272590211894</v>
       </c>
       <c r="C4">
-        <v>13.49060849480831</v>
+        <v>13.37411689803484</v>
       </c>
       <c r="D4">
-        <v>4.655289150343645</v>
+        <v>4.666725623518914</v>
       </c>
       <c r="E4">
-        <v>8.937860090199928</v>
+        <v>8.853272372433631</v>
       </c>
       <c r="F4">
-        <v>14.94674866517703</v>
+        <v>14.80520637824269</v>
       </c>
       <c r="G4">
-        <v>17.48907792340716</v>
+        <v>16.47999885293513</v>
       </c>
       <c r="H4">
-        <v>1.968582265206078</v>
+        <v>1.920309126967128</v>
       </c>
       <c r="J4">
-        <v>7.86468149427904</v>
+        <v>8.373098881370494</v>
       </c>
       <c r="K4">
-        <v>12.44278114446291</v>
+        <v>12.2301446983324</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.95821855275626</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.193817568086193</v>
       </c>
       <c r="N4">
-        <v>6.749267729248369</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.51734499423521</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.81290478927339</v>
       </c>
       <c r="Q4">
-        <v>12.21349174957196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.52308069669479</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.09673834425922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.95614555669572</v>
+        <v>18.9932146118327</v>
       </c>
       <c r="C5">
-        <v>13.33911951167129</v>
+        <v>13.19605830028335</v>
       </c>
       <c r="D5">
-        <v>4.596146060666503</v>
+        <v>4.602983269709244</v>
       </c>
       <c r="E5">
-        <v>8.931281848389334</v>
+        <v>8.848259558117052</v>
       </c>
       <c r="F5">
-        <v>14.88429072994456</v>
+        <v>14.74977990645385</v>
       </c>
       <c r="G5">
-        <v>17.42116155074471</v>
+        <v>16.42425076936629</v>
       </c>
       <c r="H5">
-        <v>2.020812538529003</v>
+        <v>1.96850615072942</v>
       </c>
       <c r="J5">
-        <v>7.88283640738673</v>
+        <v>8.382843378097286</v>
       </c>
       <c r="K5">
-        <v>12.51745509459543</v>
+        <v>12.3023918288873</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.01868565918605</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.2631154570531</v>
       </c>
       <c r="N5">
-        <v>6.706370205256357</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.33718586989831</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.772391339852598</v>
       </c>
       <c r="Q5">
-        <v>12.22400648227759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.34134477354757</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.11020087925753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.89182071687276</v>
+        <v>18.92942503220143</v>
       </c>
       <c r="C6">
-        <v>13.31378250083711</v>
+        <v>13.16627161334838</v>
       </c>
       <c r="D6">
-        <v>4.586239137359778</v>
+        <v>4.592305433600266</v>
       </c>
       <c r="E6">
-        <v>8.930182685622633</v>
+        <v>8.847423875640297</v>
       </c>
       <c r="F6">
-        <v>14.87411700344141</v>
+        <v>14.74074192058234</v>
       </c>
       <c r="G6">
-        <v>17.41020995570553</v>
+        <v>16.41532736222059</v>
       </c>
       <c r="H6">
-        <v>2.029548145192537</v>
+        <v>1.976567541991518</v>
       </c>
       <c r="J6">
-        <v>7.885923512222511</v>
+        <v>8.384501307368989</v>
       </c>
       <c r="K6">
-        <v>12.52996965267174</v>
+        <v>12.31448291144035</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.02884282930734</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.274920218173503</v>
       </c>
       <c r="N6">
-        <v>6.699216019991177</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.30698681084201</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.765640381211351</v>
       </c>
       <c r="Q6">
-        <v>12.22591965236222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.3108766076169</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.11257561298461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.33371510665203</v>
+        <v>19.36744326813873</v>
       </c>
       <c r="C7">
-        <v>13.48857779612471</v>
+        <v>13.366991967678</v>
       </c>
       <c r="D7">
-        <v>4.65449734052287</v>
+        <v>4.669192891871365</v>
       </c>
       <c r="E7">
-        <v>8.937771829250222</v>
+        <v>8.852520412341788</v>
       </c>
       <c r="F7">
-        <v>14.94589310613698</v>
+        <v>14.79012222988736</v>
       </c>
       <c r="G7">
-        <v>17.4881400852242</v>
+        <v>16.56688607036159</v>
       </c>
       <c r="H7">
-        <v>1.969282459755743</v>
+        <v>1.921429864810466</v>
       </c>
       <c r="J7">
-        <v>7.864921451038978</v>
+        <v>8.339034884753191</v>
       </c>
       <c r="K7">
-        <v>12.44378048869315</v>
+        <v>12.22679067964277</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.95446855180024</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.192985322463079</v>
       </c>
       <c r="N7">
-        <v>6.748691303688183</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.51493442620399</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.81188869100708</v>
       </c>
       <c r="Q7">
-        <v>12.21362227215815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.52051090514297</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.08695941532994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.17015931489409</v>
+        <v>21.18855730599908</v>
       </c>
       <c r="C8">
-        <v>14.23229314345688</v>
+        <v>14.22992785754286</v>
       </c>
       <c r="D8">
-        <v>4.942844706973343</v>
+        <v>4.987085606697891</v>
       </c>
       <c r="E8">
-        <v>8.970306798599847</v>
+        <v>8.876159436934209</v>
       </c>
       <c r="F8">
-        <v>15.29124838722031</v>
+        <v>15.06321144150954</v>
       </c>
       <c r="G8">
-        <v>17.87982658193001</v>
+        <v>17.09643178432052</v>
       </c>
       <c r="H8">
-        <v>1.712368122842601</v>
+        <v>1.685394974587561</v>
       </c>
       <c r="J8">
-        <v>7.78307686890787</v>
+        <v>8.21773204511153</v>
       </c>
       <c r="K8">
-        <v>12.08045064625495</v>
+        <v>11.86292003076516</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.65465990536777</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.877998308858506</v>
       </c>
       <c r="N8">
-        <v>6.962268419594873</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.39034884815207</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.013362661073049</v>
       </c>
       <c r="Q8">
-        <v>12.18445339794093</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.40258807548647</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.01584179924166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.36469779391106</v>
+        <v>24.35729839122719</v>
       </c>
       <c r="C9">
-        <v>15.58254870269394</v>
+        <v>15.80712590777836</v>
       </c>
       <c r="D9">
-        <v>5.459560110044782</v>
+        <v>5.545104873014476</v>
       </c>
       <c r="E9">
-        <v>9.031104180223993</v>
+        <v>8.923720545986647</v>
       </c>
       <c r="F9">
-        <v>16.06966671833719</v>
+        <v>15.73833757768562</v>
       </c>
       <c r="G9">
-        <v>18.82148691280876</v>
+        <v>17.990370239291</v>
       </c>
       <c r="H9">
-        <v>1.873455040900159</v>
+        <v>1.863585351234916</v>
       </c>
       <c r="J9">
-        <v>7.664491203203146</v>
+        <v>8.123298021838362</v>
       </c>
       <c r="K9">
-        <v>11.43235816221024</v>
+        <v>11.21605260691125</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.1436882962258</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.449680668048599</v>
       </c>
       <c r="N9">
-        <v>7.36204068996046</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.94820289566089</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.39480023347064</v>
       </c>
       <c r="Q9">
-        <v>12.22488390889619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.97025402266162</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.99469724561293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.4822510349026</v>
+        <v>26.45688431056574</v>
       </c>
       <c r="C10">
-        <v>16.60180215750986</v>
+        <v>16.94263639601166</v>
       </c>
       <c r="D10">
-        <v>5.830455707435783</v>
+        <v>5.957553459799216</v>
       </c>
       <c r="E10">
-        <v>9.064479406481968</v>
+        <v>8.951085289767429</v>
       </c>
       <c r="F10">
-        <v>16.59198939546576</v>
+        <v>16.11445441803924</v>
       </c>
       <c r="G10">
-        <v>19.42248806088161</v>
+        <v>19.03981833098585</v>
       </c>
       <c r="H10">
-        <v>2.187020108602215</v>
+        <v>2.150193737941413</v>
       </c>
       <c r="J10">
-        <v>7.573086305188184</v>
+        <v>7.855681407365385</v>
       </c>
       <c r="K10">
-        <v>10.93723670136999</v>
+        <v>10.69957366690101</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.75883855704614</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.192954096951723</v>
       </c>
       <c r="N10">
-        <v>7.548425488926888</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.91949021833831</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.566466173391332</v>
       </c>
       <c r="Q10">
-        <v>12.23692739296298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.94497645227344</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.90521034021041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.53497649173057</v>
+        <v>27.50383056461866</v>
       </c>
       <c r="C11">
-        <v>17.92318048382402</v>
+        <v>18.17075808100751</v>
       </c>
       <c r="D11">
-        <v>6.189288172555972</v>
+        <v>6.344235689615394</v>
       </c>
       <c r="E11">
-        <v>9.229780719821639</v>
+        <v>9.148011429294609</v>
       </c>
       <c r="F11">
-        <v>15.89949925165365</v>
+        <v>15.3295168753691</v>
       </c>
       <c r="G11">
-        <v>18.02500522007237</v>
+        <v>18.78748599006001</v>
       </c>
       <c r="H11">
-        <v>3.028381096100897</v>
+        <v>2.992929941018468</v>
       </c>
       <c r="J11">
-        <v>7.253892491179685</v>
+        <v>7.263654298856932</v>
       </c>
       <c r="K11">
-        <v>10.21856632395816</v>
+        <v>10.04828595164603</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.361587079394445</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.640583528305665</v>
       </c>
       <c r="N11">
-        <v>6.870145891884256</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.71880460563418</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.867954204901718</v>
       </c>
       <c r="Q11">
-        <v>11.53091509080202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.7386653276559</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.14713353195146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.99715316585162</v>
+        <v>27.96507644336663</v>
       </c>
       <c r="C12">
-        <v>18.85950346538636</v>
+        <v>19.01025725562673</v>
       </c>
       <c r="D12">
-        <v>6.421106487833129</v>
+        <v>6.580791389397141</v>
       </c>
       <c r="E12">
-        <v>9.665310898117649</v>
+        <v>9.597108430219723</v>
       </c>
       <c r="F12">
-        <v>15.18343146440262</v>
+        <v>14.61486608636223</v>
       </c>
       <c r="G12">
-        <v>16.68306943609653</v>
+        <v>18.03976879474087</v>
       </c>
       <c r="H12">
-        <v>4.257894942673386</v>
+        <v>4.230958337308226</v>
       </c>
       <c r="J12">
-        <v>7.000436053304802</v>
+        <v>6.970059843713382</v>
       </c>
       <c r="K12">
-        <v>9.770729751976672</v>
+        <v>9.681559564028287</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.171214496958566</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.262254440541661</v>
       </c>
       <c r="N12">
-        <v>6.339335388541792</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.34067933347193</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.324660296047976</v>
       </c>
       <c r="Q12">
-        <v>10.92001132907007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.35580242273998</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.5539336216808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.04814986953877</v>
+        <v>28.01904840978842</v>
       </c>
       <c r="C13">
-        <v>19.57203937026827</v>
+        <v>19.628621373469</v>
       </c>
       <c r="D13">
-        <v>6.574157408151497</v>
+        <v>6.713148660053922</v>
       </c>
       <c r="E13">
-        <v>10.28845185623551</v>
+        <v>10.22442827412978</v>
       </c>
       <c r="F13">
-        <v>14.38785567264846</v>
+        <v>13.92703932805136</v>
       </c>
       <c r="G13">
-        <v>15.26832042399703</v>
+        <v>16.62447542397904</v>
       </c>
       <c r="H13">
-        <v>5.563660725440394</v>
+        <v>5.544560790485551</v>
       </c>
       <c r="J13">
-        <v>6.783080228668943</v>
+        <v>6.88265464588728</v>
       </c>
       <c r="K13">
-        <v>9.518019395730756</v>
+        <v>9.511877717948684</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.096997618068055</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.029732141946826</v>
       </c>
       <c r="N13">
-        <v>5.906861562123102</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.79242926846287</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.886863859236184</v>
       </c>
       <c r="Q13">
-        <v>10.34278096641686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.80337031312518</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.0702921304076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.89886469583843</v>
+        <v>27.87357405651879</v>
       </c>
       <c r="C14">
-        <v>19.97814982529257</v>
+        <v>19.96899077349601</v>
       </c>
       <c r="D14">
-        <v>6.647517139876896</v>
+        <v>6.760249698004604</v>
       </c>
       <c r="E14">
-        <v>10.81899773859588</v>
+        <v>10.75338704909186</v>
       </c>
       <c r="F14">
-        <v>13.78970963092232</v>
+        <v>13.45098342734913</v>
       </c>
       <c r="G14">
-        <v>14.23637695115942</v>
+        <v>15.32712121233381</v>
       </c>
       <c r="H14">
-        <v>6.503789612458225</v>
+        <v>6.489341043790005</v>
       </c>
       <c r="J14">
-        <v>6.649606518289315</v>
+        <v>6.894533578078367</v>
       </c>
       <c r="K14">
-        <v>9.444853061255127</v>
+        <v>9.484125224185151</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.088781188057611</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.95246340678881</v>
       </c>
       <c r="N14">
-        <v>5.676148179619257</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.32407201922099</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.656435007626743</v>
       </c>
       <c r="Q14">
-        <v>9.958032352325683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.33216071814596</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.780613227507876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77353742612709</v>
+        <v>27.75004032651533</v>
       </c>
       <c r="C15">
-        <v>20.02687376693121</v>
+        <v>20.00247583029634</v>
       </c>
       <c r="D15">
-        <v>6.648205727297777</v>
+        <v>6.749552000695383</v>
       </c>
       <c r="E15">
-        <v>10.94821054905917</v>
+        <v>10.88250686688671</v>
       </c>
       <c r="F15">
-        <v>13.62903548195347</v>
+        <v>13.33955531736053</v>
       </c>
       <c r="G15">
-        <v>13.97314439472727</v>
+        <v>14.88655907480368</v>
       </c>
       <c r="H15">
-        <v>6.717739876359148</v>
+        <v>6.704707558024017</v>
       </c>
       <c r="J15">
-        <v>6.62572794904574</v>
+        <v>6.929492818000171</v>
       </c>
       <c r="K15">
-        <v>9.46114759569967</v>
+        <v>9.507682833537141</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.099003367389839</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.963306083470848</v>
       </c>
       <c r="N15">
-        <v>5.630078446344161</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.17298464426248</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.611907092409093</v>
       </c>
       <c r="Q15">
-        <v>9.874318137844124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.18039836284199</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.732058903524047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.90674628395477</v>
+        <v>26.89150686445684</v>
       </c>
       <c r="C16">
-        <v>19.49769706992834</v>
+        <v>19.47995672035206</v>
       </c>
       <c r="D16">
-        <v>6.473261954982738</v>
+        <v>6.533556299059152</v>
       </c>
       <c r="E16">
-        <v>10.79037219555379</v>
+        <v>10.73307638408889</v>
       </c>
       <c r="F16">
-        <v>13.52549756424935</v>
+        <v>13.39491454515137</v>
       </c>
       <c r="G16">
-        <v>13.92773067533552</v>
+        <v>13.92060726481166</v>
       </c>
       <c r="H16">
-        <v>6.449454294203115</v>
+        <v>6.440865838405439</v>
       </c>
       <c r="J16">
-        <v>6.710226309880452</v>
+        <v>7.237617855432263</v>
       </c>
       <c r="K16">
-        <v>9.732413488329271</v>
+        <v>9.762788276523885</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.207138087535309</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.196825479164369</v>
       </c>
       <c r="N16">
-        <v>5.627489137980468</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.84547286094741</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.621105164629969</v>
       </c>
       <c r="Q16">
-        <v>9.981215784096092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.85301634478244</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.938465454202142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.30938473462914</v>
+        <v>26.29828337298861</v>
       </c>
       <c r="C17">
-        <v>18.85784338129387</v>
+        <v>18.87457470932565</v>
       </c>
       <c r="D17">
-        <v>6.29553428368437</v>
+        <v>6.343560201660475</v>
       </c>
       <c r="E17">
-        <v>10.36759840425348</v>
+        <v>10.31640533195031</v>
       </c>
       <c r="F17">
-        <v>13.77638577468238</v>
+        <v>13.68214069572533</v>
       </c>
       <c r="G17">
-        <v>14.46208830257152</v>
+        <v>14.02288144715158</v>
       </c>
       <c r="H17">
-        <v>5.696055802794364</v>
+        <v>5.689190669695162</v>
       </c>
       <c r="J17">
-        <v>6.845195203049659</v>
+        <v>7.460380952268188</v>
       </c>
       <c r="K17">
-        <v>9.972304235193661</v>
+        <v>9.977841127634299</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.314793706399312</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.399104573616671</v>
       </c>
       <c r="N17">
-        <v>5.735132303389327</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.85114130951826</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.736899257111485</v>
       </c>
       <c r="Q17">
-        <v>10.26764333059284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.86022386588878</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.24086521425755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.88967931363322</v>
+        <v>25.87969767134856</v>
       </c>
       <c r="C18">
-        <v>18.06471767918869</v>
+        <v>18.15037840505747</v>
       </c>
       <c r="D18">
-        <v>6.098584829892159</v>
+        <v>6.151259901136351</v>
       </c>
       <c r="E18">
-        <v>9.772383309261828</v>
+        <v>9.722721444517019</v>
       </c>
       <c r="F18">
-        <v>14.35047216361773</v>
+        <v>14.22139753792367</v>
       </c>
       <c r="G18">
-        <v>15.53890844903744</v>
+        <v>14.85350995878682</v>
       </c>
       <c r="H18">
-        <v>4.47288394397181</v>
+        <v>4.465641557595265</v>
       </c>
       <c r="J18">
-        <v>7.038989961885525</v>
+        <v>7.669653668972146</v>
       </c>
       <c r="K18">
-        <v>10.24857876719501</v>
+        <v>10.21522982359025</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.456418199844908</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.619463674551533</v>
       </c>
       <c r="N18">
-        <v>6.020436746728529</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.14607608859895</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.029425651674297</v>
       </c>
       <c r="Q18">
-        <v>10.73864923951671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.15859763918394</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.67931903874892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.65214063837705</v>
+        <v>25.64065639172115</v>
       </c>
       <c r="C19">
-        <v>17.23107858384003</v>
+        <v>17.40742019518603</v>
       </c>
       <c r="D19">
-        <v>5.905302636991188</v>
+        <v>5.972525521956296</v>
       </c>
       <c r="E19">
-        <v>9.265910489590796</v>
+        <v>9.204563188146924</v>
       </c>
       <c r="F19">
-        <v>15.13167167046876</v>
+        <v>14.92570035208464</v>
       </c>
       <c r="G19">
-        <v>16.95834635177241</v>
+        <v>16.1146969690265</v>
       </c>
       <c r="H19">
-        <v>3.101237285231678</v>
+        <v>3.090329644015879</v>
       </c>
       <c r="J19">
-        <v>7.26903789170677</v>
+        <v>7.873384672328573</v>
       </c>
       <c r="K19">
-        <v>10.58515098930491</v>
+        <v>10.49325421355555</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.63798484106642</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.878703366750811</v>
       </c>
       <c r="N19">
-        <v>6.51510356951376</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.64398356826187</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.531295320336373</v>
       </c>
       <c r="Q19">
-        <v>11.3279019517398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.6613230173518</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.20577370801232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.94359535849345</v>
+        <v>25.92343806885244</v>
       </c>
       <c r="C20">
-        <v>16.34421660195285</v>
+        <v>16.66916566177565</v>
       </c>
       <c r="D20">
-        <v>5.7363967897262</v>
+        <v>5.842628477491232</v>
       </c>
       <c r="E20">
-        <v>9.054762539990532</v>
+        <v>8.945014776753636</v>
       </c>
       <c r="F20">
-        <v>16.44571343550655</v>
+        <v>16.05396078255039</v>
       </c>
       <c r="G20">
-        <v>19.24803200307021</v>
+        <v>18.46359587401841</v>
       </c>
       <c r="H20">
-        <v>2.103995961638688</v>
+        <v>2.075426562194401</v>
       </c>
       <c r="J20">
-        <v>7.593665476175036</v>
+        <v>8.038141204835773</v>
       </c>
       <c r="K20">
-        <v>11.06173313191178</v>
+        <v>10.84576460928937</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.86433697989419</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.264806538523687</v>
       </c>
       <c r="N20">
-        <v>7.495840663984131</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.66757533551704</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.51895108474574</v>
       </c>
       <c r="Q20">
-        <v>12.22535486652113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.69279606659286</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.95629968049576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.46588503748365</v>
+        <v>27.4289618156548</v>
       </c>
       <c r="C21">
-        <v>16.9475443963501</v>
+        <v>17.30244220235458</v>
       </c>
       <c r="D21">
-        <v>5.975485352504919</v>
+        <v>6.167758051593922</v>
       </c>
       <c r="E21">
-        <v>9.095977584496513</v>
+        <v>8.964093554386274</v>
       </c>
       <c r="F21">
-        <v>17.03305882241103</v>
+        <v>16.26679029761418</v>
       </c>
       <c r="G21">
-        <v>20.04580027661194</v>
+        <v>21.0610560440233</v>
       </c>
       <c r="H21">
-        <v>2.352481641118113</v>
+        <v>2.296531110015472</v>
       </c>
       <c r="J21">
-        <v>7.584040305944018</v>
+        <v>7.329846703461043</v>
       </c>
       <c r="K21">
-        <v>10.79261942462223</v>
+        <v>10.45576364555978</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.58376734993354</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.10299884881583</v>
       </c>
       <c r="N21">
-        <v>7.780553872177419</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.49231896337949</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.78785737345375</v>
       </c>
       <c r="Q21">
-        <v>12.38677583381683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.51762412010996</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.8356643875649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.42535115974848</v>
+        <v>28.37796040497497</v>
       </c>
       <c r="C22">
-        <v>17.37861445233751</v>
+        <v>17.74161744703683</v>
       </c>
       <c r="D22">
-        <v>6.137393996421394</v>
+        <v>6.386823362939803</v>
       </c>
       <c r="E22">
-        <v>9.117365603568389</v>
+        <v>8.97483737865543</v>
       </c>
       <c r="F22">
-        <v>17.37081177405304</v>
+        <v>16.34989882124829</v>
       </c>
       <c r="G22">
-        <v>20.4845855560613</v>
+        <v>22.76850045966818</v>
       </c>
       <c r="H22">
-        <v>2.507181051584297</v>
+        <v>2.433989157595892</v>
       </c>
       <c r="J22">
-        <v>7.567181213464565</v>
+        <v>6.903850857541729</v>
       </c>
       <c r="K22">
-        <v>10.59469284384272</v>
+        <v>10.17447993454184</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.394872043334027</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.9850499471986</v>
       </c>
       <c r="N22">
-        <v>7.915481937474728</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.97498313972764</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.912094792872098</v>
       </c>
       <c r="Q22">
-        <v>12.46326068842352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.99931065925906</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.71522199450188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.91726827786918</v>
+        <v>27.87574717277599</v>
       </c>
       <c r="C23">
-        <v>17.14987672266824</v>
+        <v>17.51838711169806</v>
       </c>
       <c r="D23">
-        <v>6.051534633443379</v>
+        <v>6.263393683676073</v>
       </c>
       <c r="E23">
-        <v>9.105957398144257</v>
+        <v>8.970050578998698</v>
       </c>
       <c r="F23">
-        <v>17.18967347504244</v>
+        <v>16.33834344576605</v>
       </c>
       <c r="G23">
-        <v>20.24876254998694</v>
+        <v>21.65102685830046</v>
       </c>
       <c r="H23">
-        <v>2.424871667611892</v>
+        <v>2.361593781120443</v>
       </c>
       <c r="J23">
-        <v>7.575602573101565</v>
+        <v>7.183650306282746</v>
       </c>
       <c r="K23">
-        <v>10.69943027193568</v>
+        <v>10.33539611477941</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.500391719216495</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.058502009709183</v>
       </c>
       <c r="N23">
-        <v>7.843727105375121</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.71913133455603</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.84691296960527</v>
       </c>
       <c r="Q23">
-        <v>12.42115442524144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.74442348461725</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.80450847835956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.90477687460207</v>
+        <v>25.88452458628966</v>
       </c>
       <c r="C24">
-        <v>16.25462376225215</v>
+        <v>16.58727620481658</v>
       </c>
       <c r="D24">
-        <v>5.714254631291825</v>
+        <v>5.821283309573357</v>
       </c>
       <c r="E24">
-        <v>9.062542207316328</v>
+        <v>8.948486260764765</v>
       </c>
       <c r="F24">
-        <v>16.52320263011698</v>
+        <v>16.12572599038396</v>
       </c>
       <c r="G24">
-        <v>19.39199246622846</v>
+        <v>18.57867214202754</v>
       </c>
       <c r="H24">
-        <v>2.107383143296465</v>
+        <v>2.078797282847511</v>
       </c>
       <c r="J24">
-        <v>7.619829248820071</v>
+        <v>8.065677431458777</v>
       </c>
       <c r="K24">
-        <v>11.1151766730152</v>
+        <v>10.89070606002726</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.893990784825176</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.304836921371021</v>
       </c>
       <c r="N24">
-        <v>7.566391528307199</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.71172421271958</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.590580615541468</v>
       </c>
       <c r="Q24">
-        <v>12.28937666652194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.73742962236781</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.01498058499913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.54384034341333</v>
+        <v>23.54336815331239</v>
       </c>
       <c r="C25">
-        <v>15.22955746371349</v>
+        <v>15.40152107995207</v>
       </c>
       <c r="D25">
-        <v>5.325184946747733</v>
+        <v>5.395805931642387</v>
       </c>
       <c r="E25">
-        <v>9.014935609226276</v>
+        <v>8.911782757261619</v>
       </c>
       <c r="F25">
-        <v>15.84847734950922</v>
+        <v>15.56566896762438</v>
       </c>
       <c r="G25">
-        <v>18.54815497856256</v>
+        <v>17.61084107689787</v>
       </c>
       <c r="H25">
-        <v>1.751907291034973</v>
+        <v>1.752178097122151</v>
       </c>
       <c r="J25">
-        <v>7.691792314940085</v>
+        <v>8.193602503580706</v>
       </c>
       <c r="K25">
-        <v>11.60043531012298</v>
+        <v>11.3914670969282</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.280232245348</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.548628462583592</v>
       </c>
       <c r="N25">
-        <v>7.25610138901137</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.54428516942719</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.29402671845833</v>
       </c>
       <c r="Q25">
-        <v>12.20280866429348</v>
+        <v>13.56429017201013</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.00499734061154</v>
       </c>
     </row>
   </sheetData>
